--- a/qPCR validation/Qpcr analysis log2fold change.xlsx
+++ b/qPCR validation/Qpcr analysis log2fold change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upadhaya\Desktop\qpcr analysis Nov_24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upadhaya\Desktop\RNA-seq\qPCR validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8403A5-A710-4718-BEE9-C3AA72F98081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447E2BB-F3DB-4905-B044-7CEBECB61F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summarized foldchangedata" sheetId="11" r:id="rId1"/>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5733A0-0D54-4F6C-83AF-504C2E8976FE}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33C448-9E34-43EA-85C6-AF5A09EC1FEE}">
   <dimension ref="A2:Z454"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P307" sqref="P307"/>
+    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N213" sqref="N213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13538,8 +13538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E991-E510-464E-87E0-BDC80A7166AF}">
   <dimension ref="A2:S315"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q239" sqref="Q239"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13913,6 +13913,10 @@
         <f>LOG(K13,2)</f>
         <v>-0.12149235854711177</v>
       </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(L13,L16,L19)</f>
+        <v>-0.69397002042482825</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -16034,6 +16038,10 @@
         <f>LOG(K107,2)</f>
         <v>-0.28320493883567976</v>
       </c>
+      <c r="M107" s="1">
+        <f>AVERAGE(L107,L110,L113)</f>
+        <v>-0.261757875370767</v>
+      </c>
       <c r="N107" s="1" t="s">
         <v>7</v>
       </c>
@@ -16307,6 +16315,10 @@
       <c r="L117" s="1">
         <f t="shared" si="33"/>
         <v>0.69818123813320287</v>
+      </c>
+      <c r="M117" s="1">
+        <f>AVERAGE(L117,L120,L123)</f>
+        <v>-0.38651447787384807</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>11</v>
@@ -23325,8 +23337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED7D070-B401-4E15-BC72-26F0973353FA}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/qPCR validation/Qpcr analysis log2fold change.xlsx
+++ b/qPCR validation/Qpcr analysis log2fold change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upadhaya\Desktop\RNA-seq\qPCR validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudha.gcupadhaya\Desktop\RNA-seq\qPCR validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447E2BB-F3DB-4905-B044-7CEBECB61F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C527FF19-CBD4-43BF-9779-00C8754DE51E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summarized foldchangedata" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="V.dahliae-log2foldchange" sheetId="10" r:id="rId4"/>
     <sheet name="primersequnece" sheetId="9" r:id="rId5"/>
     <sheet name="RNA quantification data" sheetId="8" r:id="rId6"/>
+    <sheet name="primers" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="375">
   <si>
     <t>down</t>
   </si>
@@ -1056,6 +1054,114 @@
   </si>
   <si>
     <t>foldchange_qpcr</t>
+  </si>
+  <si>
+    <t>111vs 653</t>
+  </si>
+  <si>
+    <t>RNAseq result</t>
+  </si>
+  <si>
+    <t>RNA seq result</t>
+  </si>
+  <si>
+    <t>Rep1</t>
+  </si>
+  <si>
+    <t>Re2</t>
+  </si>
+  <si>
+    <t>Rep3</t>
+  </si>
+  <si>
+    <t>RNAseq-foldchange</t>
+  </si>
+  <si>
+    <t>Bj</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>qPCR-folchange</t>
+  </si>
+  <si>
+    <t>Forward sequence</t>
+  </si>
+  <si>
+    <t>Reverese sequence</t>
+  </si>
+  <si>
+    <t>product length(bp)</t>
+  </si>
+  <si>
+    <t>St_PR04_SOLLC</t>
+  </si>
+  <si>
+    <t>St_ABAH1_ARATH</t>
+  </si>
+  <si>
+    <t>St_PGSC0003DMG400024310</t>
+  </si>
+  <si>
+    <t>St_LOX12_SOLTU</t>
+  </si>
+  <si>
+    <t>St_PRR1_TOBAC</t>
+  </si>
+  <si>
+    <t>St_CHSB_SOLTU</t>
+  </si>
+  <si>
+    <t>St_EDL3_ARATH</t>
+  </si>
+  <si>
+    <t>St_WRK40_ARATH</t>
+  </si>
+  <si>
+    <t>St_TIF5A_ARATH</t>
+  </si>
+  <si>
+    <t>St_ef1alpha</t>
+  </si>
+  <si>
+    <t>Vd_AOX_PODAS</t>
+  </si>
+  <si>
+    <t>Vd_YDDQ_BACSU</t>
+  </si>
+  <si>
+    <t>Vd_mRNA_1341</t>
+  </si>
+  <si>
+    <t>Vd_AYG1_ASPFU</t>
+  </si>
+  <si>
+    <t>Vd_ef-1</t>
+  </si>
+  <si>
+    <t>Bj_Cluster-15354.86688</t>
+  </si>
+  <si>
+    <t>Bj_NUP1_ARATH</t>
+  </si>
+  <si>
+    <t>Bj_PDRP2_ARATH</t>
+  </si>
+  <si>
+    <t>Bj_SCL1_ARATH</t>
+  </si>
+  <si>
+    <t>Bj_Cluster-15354.44072</t>
+  </si>
+  <si>
+    <t>Bj_Cluster-15354.125147</t>
+  </si>
+  <si>
+    <t>Bj_ACT</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5733A0-0D54-4F6C-83AF-504C2E8976FE}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
@@ -3978,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33C448-9E34-43EA-85C6-AF5A09EC1FEE}">
-  <dimension ref="A2:Z454"/>
+  <dimension ref="A2:AD454"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N213" sqref="N213"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,6 +4095,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -7066,7 +7174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>202</v>
       </c>
@@ -7116,8 +7224,12 @@
         <f>AVERAGE(M113,M116,M119)</f>
         <v>-1.0079588039714953</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="AA113" s="1"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>202</v>
       </c>
@@ -7140,7 +7252,7 @@
         <v>26.215421651696918</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>202</v>
       </c>
@@ -7163,7 +7275,7 @@
         <v>26.20513974330969</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>202</v>
       </c>
@@ -7210,7 +7322,7 @@
         <v>-0.21982743114249095</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>202</v>
       </c>
@@ -7245,7 +7357,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
@@ -7268,7 +7380,7 @@
         <v>24.72640802257926</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>202</v>
       </c>
@@ -7315,7 +7427,7 @@
         <v>-1.2953496825867603</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>202</v>
       </c>
@@ -7338,7 +7450,7 @@
         <v>26.091587464077879</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>202</v>
       </c>
@@ -7361,7 +7473,7 @@
         <v>26.230519869867653</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -7370,7 +7482,7 @@
         <v>8.380026189338162</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>202</v>
       </c>
@@ -7417,7 +7529,7 @@
         <v>2.3708317334163773</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>202</v>
       </c>
@@ -7440,7 +7552,7 @@
         <v>26.160139906587354</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>202</v>
       </c>
@@ -7463,7 +7575,7 @@
         <v>26.235982807533382</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>202</v>
       </c>
@@ -7510,7 +7622,7 @@
         <v>-0.82912237029874447</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>202</v>
       </c>
@@ -7533,7 +7645,7 @@
         <v>26.020432236847977</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>202</v>
       </c>
@@ -9619,20 +9731,20 @@
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B211" s="13"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B212" s="13"/>
       <c r="C212" t="s">
         <v>1</v>
@@ -9672,7 +9784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>59</v>
       </c>
@@ -9725,8 +9837,17 @@
       <c r="O213" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1"/>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>59</v>
       </c>
@@ -9748,8 +9869,17 @@
       <c r="H214" s="1">
         <v>26.179328036098497</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>59</v>
       </c>
@@ -9786,8 +9916,13 @@
       <c r="T215" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>59</v>
       </c>
@@ -9834,7 +9969,7 @@
         <v>-0.16951784452515656</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>59</v>
       </c>
@@ -9857,7 +9992,7 @@
         <v>24.659206087385151</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>59</v>
       </c>
@@ -9880,7 +10015,7 @@
         <v>24.688729007444852</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>59</v>
       </c>
@@ -9927,7 +10062,7 @@
         <v>-0.48457822214047774</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>59</v>
       </c>
@@ -9950,7 +10085,7 @@
         <v>26.055878059634153</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>59</v>
       </c>
@@ -9973,7 +10108,7 @@
         <v>26.194379410146873</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B222" s="13"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -9982,7 +10117,7 @@
         <v>5.4714139043942938</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>59</v>
       </c>
@@ -10029,7 +10164,7 @@
         <v>0.26333522988755215</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>59</v>
       </c>
@@ -13536,18 +13671,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B3E991-E510-464E-87E0-BDC80A7166AF}">
-  <dimension ref="A2:S315"/>
+  <dimension ref="A1:AD315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y196" sqref="Y196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -13585,8 +13739,20 @@
       <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
@@ -13641,8 +13807,20 @@
       <c r="S3" s="1">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -13673,8 +13851,20 @@
       <c r="S4" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>164</v>
       </c>
@@ -13693,8 +13883,20 @@
       <c r="G5" s="1">
         <v>26.23344248344689</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>164</v>
       </c>
@@ -13737,8 +13939,23 @@
         <f t="shared" ref="L6:L9" si="3">LOG(K6,2)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>164</v>
       </c>
@@ -13757,8 +13974,26 @@
       <c r="G7" s="1">
         <v>27.7827538909339</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>164</v>
       </c>
@@ -13777,8 +14012,26 @@
       <c r="G8" s="1">
         <v>27.748463549953453</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>29.804115555858651</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>164</v>
       </c>
@@ -13821,8 +14074,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>29.956827802683573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
@@ -13841,8 +14106,20 @@
       <c r="G10" s="1">
         <v>25.86079524454647</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>29.884923650833255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>164</v>
       </c>
@@ -13861,16 +14138,35 @@
       <c r="G11" s="1">
         <v>25.645698705094674</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X11" s="2"/>
+      <c r="Z11" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="D12" s="2"/>
       <c r="I12" s="1">
         <f>AVERAGE(I9)</f>
         <v>4.1667045089203043</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>30.624836797900752</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>-0.12149235854711177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -13917,8 +14213,20 @@
         <f>AVERAGE(L13,L16,L19)</f>
         <v>-0.69397002042482825</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>30.810718880546617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>164</v>
       </c>
@@ -13937,8 +14245,20 @@
       <c r="G14" s="1">
         <v>26.533646051871639</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>31.00709456470306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -13957,8 +14277,23 @@
       <c r="G15" s="1">
         <v>26.352203048513452</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>32.293450712389046</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-2.1535567623829301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -14001,8 +14336,20 @@
         <f t="shared" ref="L16:L19" si="6">LOG(K16,2)</f>
         <v>-2.1535567623829301</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>32.525043912679628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>164</v>
       </c>
@@ -14021,8 +14368,20 @@
       <c r="G17" s="1">
         <v>26.120967289695987</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>32.093230268059223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>164</v>
       </c>
@@ -14041,8 +14400,23 @@
       <c r="G18" s="1">
         <v>26.035891454651644</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>29.774131950286403</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.19313905965555744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>164</v>
       </c>
@@ -14085,8 +14459,20 @@
         <f t="shared" si="6"/>
         <v>0.19313905965555744</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>29.918332256770242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>164</v>
       </c>
@@ -14105,8 +14491,20 @@
       <c r="G20" s="1">
         <v>25.64841315206931</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>29.624873836809567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -14125,16 +14523,27 @@
       <c r="G21" s="1">
         <v>25.98598576889728</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="D22" s="2"/>
       <c r="I22" s="1">
         <f>AVERAGE(I13,I16,I19)</f>
         <v>4.8606745293451326</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -14163,8 +14572,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -14181,8 +14600,18 @@
       <c r="G24" s="1">
         <v>25.199054590886647</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
@@ -14199,8 +14628,18 @@
       <c r="G25" s="1">
         <v>24.969272386635495</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
@@ -14229,8 +14668,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
@@ -14247,8 +14696,18 @@
       <c r="G27" s="1">
         <v>25.671302395598524</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>164</v>
       </c>
@@ -14265,8 +14724,18 @@
       <c r="G28" s="1">
         <v>26.191109338114266</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
@@ -14295,8 +14764,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>164</v>
       </c>
@@ -14313,8 +14792,18 @@
       <c r="G30" s="1">
         <v>26.311652453855636</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -14332,7 +14821,7 @@
         <v>26.177133789586993</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="I32" s="1" t="e">
@@ -14340,11 +14829,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -14393,8 +14882,23 @@
       <c r="S36" s="5">
         <v>-5.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>165</v>
       </c>
@@ -14449,8 +14953,23 @@
       <c r="S37" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
@@ -14469,8 +14988,23 @@
       <c r="G38" s="1">
         <v>25.696995715684722</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>165</v>
       </c>
@@ -14489,8 +15023,26 @@
       <c r="G39" s="1">
         <v>25.8569403002437</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
@@ -14533,8 +15085,26 @@
         <f t="shared" ref="L40:L43" si="10">LOG(K40,2)</f>
         <v>-1.5374466932088591</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>36.920769681669576</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>-1.5374466932088591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -14553,8 +15123,23 @@
       <c r="G41" s="1">
         <v>27.421789711453805</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -14573,8 +15158,23 @@
       <c r="G42" s="1">
         <v>27.387451800116498</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -14617,8 +15217,26 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -14637,8 +15255,29 @@
       <c r="G44" s="1">
         <v>25.500159270172201</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
@@ -14657,13 +15296,34 @@
       <c r="G45" s="1">
         <v>25.28454439148603</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I46" s="1">
         <v>7.6559999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>165</v>
       </c>
@@ -14706,8 +15366,26 @@
         <f>LOG(K47,2)</f>
         <v>-0.58369876626165773</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>34.144334286542211</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>-0.58369876626165773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>165</v>
       </c>
@@ -14726,8 +15404,23 @@
       <c r="G48" s="1">
         <v>26.172336289686264</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>34.657200460399856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>165</v>
       </c>
@@ -14746,8 +15439,23 @@
       <c r="G49" s="1">
         <v>25.990641573799923</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>34.411660167093764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>165</v>
       </c>
@@ -14778,8 +15486,23 @@
         <f t="shared" ref="I50" si="13">F50-H50</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
@@ -14798,8 +15521,23 @@
       <c r="G51" s="1">
         <v>25.764744382588368</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>165</v>
       </c>
@@ -14818,8 +15556,23 @@
       <c r="G52" s="1">
         <v>25.665361767864308</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -14850,8 +15603,23 @@
         <f t="shared" ref="I53" si="14">F53-H53</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -14870,8 +15638,23 @@
       <c r="G54" s="1">
         <v>25.28726260416283</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -14890,14 +15673,29 @@
       <c r="G55" s="1">
         <v>25.618035718459534</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="e">
         <f>AVERAGE(I47,I50,I53)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -14928,8 +15726,23 @@
         <f t="shared" ref="I57" si="15">F57-H57</f>
         <v>8.2290321490637162</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>32.839633655799155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -14948,8 +15761,23 @@
       <c r="G58" s="1">
         <v>24.814304742328229</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>33.301417095999703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -14968,8 +15796,23 @@
       <c r="G59" s="1">
         <v>24.598292390614745</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>32.705727166077921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
@@ -15000,8 +15843,23 @@
         <f t="shared" ref="I60" si="16">F60-H60</f>
         <v>7.5914257330953347</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>33.235249725617287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -15020,8 +15878,23 @@
       <c r="G61" s="1">
         <v>25.310183601516936</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>33.649297447162688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>165</v>
       </c>
@@ -15040,8 +15913,23 @@
       <c r="G62" s="1">
         <v>25.820413632502309</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>33.044585414786361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>165</v>
       </c>
@@ -15072,8 +15960,23 @@
         <f t="shared" ref="I63" si="17">F63-H63</f>
         <v>8.0497245877828831</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>33.886785887877714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>165</v>
       </c>
@@ -15092,8 +15995,23 @@
       <c r="G64" s="1">
         <v>25.950034724050916</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>165</v>
       </c>
@@ -15112,8 +16030,23 @@
       <c r="G65" s="1">
         <v>25.809924143592688</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
@@ -15122,8 +16055,8 @@
         <v>7.9567274899806444</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B71" s="12"/>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -15165,7 +16098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>166</v>
       </c>
@@ -15216,7 +16149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>166</v>
       </c>
@@ -15248,7 +16181,7 @@
         <v>-6.2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>166</v>
       </c>
@@ -15280,7 +16213,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>166</v>
       </c>
@@ -15324,7 +16257,7 @@
         <v>-1.3634486545289806</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
@@ -15344,7 +16277,7 @@
         <v>27.744357862899744</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -15364,7 +16297,7 @@
         <v>27.710308707278593</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
@@ -15408,7 +16341,7 @@
         <v>-2.4939099014039847</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>166</v>
       </c>
@@ -15428,7 +16361,7 @@
         <v>25.822068393238968</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>166</v>
       </c>
@@ -17649,7 +18582,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
@@ -17687,7 +18620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>169</v>
       </c>
@@ -17734,7 +18667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>170</v>
       </c>
@@ -17766,7 +18699,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>171</v>
       </c>
@@ -17798,7 +18731,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>172</v>
       </c>
@@ -17841,8 +18774,32 @@
         <f t="shared" ref="L182:L195" si="55">LOG(K182,2)</f>
         <v>-7.8398365996713437</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W182" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y182" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z182" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB182" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC182" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD182" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>173</v>
       </c>
@@ -17861,8 +18818,32 @@
       <c r="G183" s="1">
         <v>27.432974344594836</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W183" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X183" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z183" s="1">
+        <v>-1.5086992981852347</v>
+      </c>
+      <c r="AA183" s="1">
+        <v>-0.21982743114249095</v>
+      </c>
+      <c r="AB183" s="1">
+        <v>-1.2953496825867603</v>
+      </c>
+      <c r="AC183" s="1">
+        <v>-1.0079588039714953</v>
+      </c>
+      <c r="AD183" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>174</v>
       </c>
@@ -17881,8 +18862,32 @@
       <c r="G184" s="1">
         <v>27.39877209989945</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W184" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z184" s="1">
+        <v>-0.1579236854882673</v>
+      </c>
+      <c r="AA184" s="1">
+        <v>-0.16951784452515656</v>
+      </c>
+      <c r="AB184" s="1">
+        <v>-0.48457822214047774</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>-0.27067325071796722</v>
+      </c>
+      <c r="AD184" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>175</v>
       </c>
@@ -17925,8 +18930,33 @@
         <f t="shared" si="55"/>
         <v>-10.02093261956</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W185" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z185" s="1">
+        <v>-0.28320493883567999</v>
+      </c>
+      <c r="AA185" s="1">
+        <v>0.6888068405644362</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>-1.1908755278410574</v>
+      </c>
+      <c r="AC185" s="1">
+        <f>AVERAGE(AB185,AB188,AB191)</f>
+        <v>-0.86973515137070267</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>176</v>
       </c>
@@ -17945,8 +18975,32 @@
       <c r="G186" s="1">
         <v>25.511034270768718</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W186" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X186" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z186" s="1">
+        <v>0.69818123813320287</v>
+      </c>
+      <c r="AA186" s="1">
+        <v>-0.39324824756134824</v>
+      </c>
+      <c r="AB186" s="1">
+        <v>-1.464476424193399</v>
+      </c>
+      <c r="AC186" s="1">
+        <v>-0.38651447787384807</v>
+      </c>
+      <c r="AD186" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>177</v>
       </c>
@@ -17977,8 +19031,32 @@
       <c r="R187" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W187" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X187" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z187" s="1">
+        <v>1.6217853502225328</v>
+      </c>
+      <c r="AA187" s="1">
+        <v>-0.98428882196498968</v>
+      </c>
+      <c r="AB187" s="1">
+        <v>-0.90653148716422127</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>-8.9678319635559389E-2</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I188" s="1">
         <f>AVERAGE(I179,I182,I185)</f>
         <v>9.4290202359784558</v>
@@ -17995,8 +19073,32 @@
       <c r="R188" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W188" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X188" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z188" s="1">
+        <v>1.979722062486406</v>
+      </c>
+      <c r="AA188" s="1">
+        <v>-0.62635210970111654</v>
+      </c>
+      <c r="AB188" s="1">
+        <v>-0.54859477490034791</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>0.26825839262831391</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>178</v>
       </c>
@@ -18060,7 +19162,7 @@
         <v>0.26825839262831391</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>179</v>
       </c>
@@ -18080,7 +19182,7 @@
         <v>26.184506495529011</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>180</v>
       </c>
@@ -18100,7 +19202,7 @@
         <v>26.003529642523663</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>181</v>
       </c>
@@ -21197,7 +22299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3BD682-77F7-44BB-AEE3-1AC9F925C654}">
   <dimension ref="A3:S94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
@@ -24238,7 +25340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82978864-FD0B-4CF6-BB30-7D541E4BA179}">
   <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -25717,4 +26819,341 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E5147-8726-426B-9747-C0AE281B3493}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>